--- a/Excel/exercicios-funcoes.xlsx
+++ b/Excel/exercicios-funcoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Git SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B61D1A5-504E-45FF-AE59-D22999A2DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB91B9-3A23-425B-B55E-CD0A60F49250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="104">
   <si>
     <t>À VISTA</t>
   </si>
@@ -1084,7 +1084,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,6 +1247,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,9 +1268,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1689,7 +1690,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1730,14 +1731,14 @@
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
@@ -1773,7 +1774,7 @@
       <c r="C8" s="26">
         <v>24</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="78">
         <f>B8*C8+B8*C8*$F$8</f>
         <v>126</v>
       </c>
@@ -1791,8 +1792,8 @@
       <c r="C9" s="24">
         <v>31</v>
       </c>
-      <c r="D9" s="84">
-        <f t="shared" ref="D9:D17" si="0">B9*C9+B9*C9*$F$8</f>
+      <c r="D9" s="78">
+        <f>B9*C9+B9*C9*$F$8</f>
         <v>130.19999999999999</v>
       </c>
     </row>
@@ -1806,8 +1807,8 @@
       <c r="C10" s="24">
         <v>25</v>
       </c>
-      <c r="D10" s="84">
-        <f t="shared" si="0"/>
+      <c r="D10" s="78">
+        <f t="shared" ref="D9:D17" si="0">B10*C10+B10*C10*$F$8</f>
         <v>78.75</v>
       </c>
     </row>
@@ -1821,7 +1822,7 @@
       <c r="C11" s="24">
         <v>28</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="78">
         <f t="shared" si="0"/>
         <v>176.4</v>
       </c>
@@ -1836,7 +1837,7 @@
       <c r="C12" s="24">
         <v>37</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="78">
         <f t="shared" si="0"/>
         <v>271.95</v>
       </c>
@@ -1851,7 +1852,7 @@
       <c r="C13" s="24">
         <v>21</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="78">
         <f t="shared" si="0"/>
         <v>176.4</v>
       </c>
@@ -1866,7 +1867,7 @@
       <c r="C14" s="24">
         <v>26</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="78">
         <f t="shared" si="0"/>
         <v>136.5</v>
       </c>
@@ -1881,7 +1882,7 @@
       <c r="C15" s="24">
         <v>35</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="78">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
@@ -1896,7 +1897,7 @@
       <c r="C16" s="24">
         <v>31</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="78">
         <f t="shared" si="0"/>
         <v>97.65</v>
       </c>
@@ -1911,7 +1912,7 @@
       <c r="C17" s="24">
         <v>20</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="78">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
@@ -1929,7 +1930,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2031,19 +2032,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2051,127 +2053,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>599</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>399</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>899</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>659</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>429</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>599</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>1530</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>699</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -2180,13 +2227,19 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="8">
         <f>MAX(B2:B16)</f>
         <v>1530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="85" t="str">
+        <f>VLOOKUP(B18,$B$2:$C$16,2,TRUE)</f>
+        <v>Secador Hottman Ultra Lite 1.000W</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2425,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2722,7 +2775,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2753,14 +2806,14 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">TODAY()</f>
-        <v>44649</v>
+        <v>44686</v>
       </c>
       <c r="C2" s="15">
         <v>25</v>
       </c>
       <c r="D2" s="16">
         <f ca="1">TODAY()+C2</f>
-        <v>44674</v>
+        <v>44711</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2769,14 +2822,14 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">TODAY()</f>
-        <v>44649</v>
+        <v>44686</v>
       </c>
       <c r="C3" s="15">
         <v>15</v>
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()+C3</f>
-        <v>44664</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2785,14 +2838,14 @@
       </c>
       <c r="B4" s="14">
         <f ca="1">TODAY()</f>
-        <v>44649</v>
+        <v>44686</v>
       </c>
       <c r="C4" s="15">
         <v>30</v>
       </c>
       <c r="D4" s="16">
         <f ca="1">TODAY()+C4</f>
-        <v>44679</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2801,30 +2854,30 @@
       </c>
       <c r="B5" s="14">
         <f ca="1">TODAY()</f>
-        <v>44649</v>
+        <v>44686</v>
       </c>
       <c r="C5" s="15">
         <v>20</v>
       </c>
       <c r="D5" s="16">
         <f ca="1">TODAY()+C5</f>
-        <v>44669</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="80" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="80"/>
+      <c r="B9" s="81"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="80"/>
+      <c r="B10" s="81"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
+      <c r="B11" s="81"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
@@ -2853,7 +2906,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2903,10 +2956,10 @@
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="42" t="s">
@@ -2995,12 +3048,12 @@
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="82" t="s">
+      <c r="M6" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
       <c r="Q6" s="40"/>
       <c r="R6" s="43"/>
     </row>
@@ -3146,7 +3199,7 @@
         <v>8.99</v>
       </c>
       <c r="P10" s="56">
-        <f t="shared" ref="P9:P15" si="0">N10*O10</f>
+        <f t="shared" ref="P10:P14" si="0">N10*O10</f>
         <v>125.86</v>
       </c>
       <c r="Q10" s="40"/>
@@ -3296,12 +3349,12 @@
     <row r="16" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="40"/>
       <c r="H16" s="61" t="s">
         <v>69</v>
@@ -3391,8 +3444,8 @@
         <v>100</v>
       </c>
       <c r="N18" s="70">
-        <f>MAX(P8:P15)</f>
-        <v>125.86</v>
+        <f>MAX(O8:O15)</f>
+        <v>11.7</v>
       </c>
       <c r="O18" s="49" t="s">
         <v>73</v>
@@ -3432,8 +3485,8 @@
         <v>102</v>
       </c>
       <c r="N19" s="70">
-        <f>MIN(P8:P15)</f>
-        <v>11.850000000000001</v>
+        <f>MIN(O8:P15)</f>
+        <v>1.7</v>
       </c>
       <c r="O19" s="49" t="s">
         <v>79</v>

--- a/Excel/exercicios-funcoes.xlsx
+++ b/Excel/exercicios-funcoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Git SOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB91B9-3A23-425B-B55E-CD0A60F49250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B61D1A5-504E-45FF-AE59-D22999A2DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>À VISTA</t>
   </si>
@@ -1084,7 +1084,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,28 +1247,27 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1690,7 +1689,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1731,14 +1730,14 @@
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
@@ -1774,7 +1773,7 @@
       <c r="C8" s="26">
         <v>24</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="84">
         <f>B8*C8+B8*C8*$F$8</f>
         <v>126</v>
       </c>
@@ -1792,8 +1791,8 @@
       <c r="C9" s="24">
         <v>31</v>
       </c>
-      <c r="D9" s="78">
-        <f>B9*C9+B9*C9*$F$8</f>
+      <c r="D9" s="84">
+        <f t="shared" ref="D9:D17" si="0">B9*C9+B9*C9*$F$8</f>
         <v>130.19999999999999</v>
       </c>
     </row>
@@ -1807,8 +1806,8 @@
       <c r="C10" s="24">
         <v>25</v>
       </c>
-      <c r="D10" s="78">
-        <f t="shared" ref="D9:D17" si="0">B10*C10+B10*C10*$F$8</f>
+      <c r="D10" s="84">
+        <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
     </row>
@@ -1822,7 +1821,7 @@
       <c r="C11" s="24">
         <v>28</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="84">
         <f t="shared" si="0"/>
         <v>176.4</v>
       </c>
@@ -1837,7 +1836,7 @@
       <c r="C12" s="24">
         <v>37</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="84">
         <f t="shared" si="0"/>
         <v>271.95</v>
       </c>
@@ -1852,7 +1851,7 @@
       <c r="C13" s="24">
         <v>21</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="84">
         <f t="shared" si="0"/>
         <v>176.4</v>
       </c>
@@ -1867,7 +1866,7 @@
       <c r="C14" s="24">
         <v>26</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="84">
         <f t="shared" si="0"/>
         <v>136.5</v>
       </c>
@@ -1882,7 +1881,7 @@
       <c r="C15" s="24">
         <v>35</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="84">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
@@ -1897,7 +1896,7 @@
       <c r="C16" s="24">
         <v>31</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="84">
         <f t="shared" si="0"/>
         <v>97.65</v>
       </c>
@@ -1912,7 +1911,7 @@
       <c r="C17" s="24">
         <v>20</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="84">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
@@ -1930,7 +1929,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2032,20 +2031,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2053,172 +2051,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>599</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>399</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>899</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>659</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4">
         <v>159</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>89</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>99</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>429</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>599</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>119</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4">
         <v>189</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>119</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>99</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>1530</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>699</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -2227,19 +2180,13 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="8">
         <f>MAX(B2:B16)</f>
         <v>1530</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="85" t="str">
-        <f>VLOOKUP(B18,$B$2:$C$16,2,TRUE)</f>
-        <v>Secador Hottman Ultra Lite 1.000W</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2372,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2775,7 +2722,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2806,14 +2753,14 @@
       </c>
       <c r="B2" s="14">
         <f ca="1">TODAY()</f>
-        <v>44686</v>
+        <v>44649</v>
       </c>
       <c r="C2" s="15">
         <v>25</v>
       </c>
       <c r="D2" s="16">
         <f ca="1">TODAY()+C2</f>
-        <v>44711</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2822,14 +2769,14 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">TODAY()</f>
-        <v>44686</v>
+        <v>44649</v>
       </c>
       <c r="C3" s="15">
         <v>15</v>
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()+C3</f>
-        <v>44701</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2838,14 +2785,14 @@
       </c>
       <c r="B4" s="14">
         <f ca="1">TODAY()</f>
-        <v>44686</v>
+        <v>44649</v>
       </c>
       <c r="C4" s="15">
         <v>30</v>
       </c>
       <c r="D4" s="16">
         <f ca="1">TODAY()+C4</f>
-        <v>44716</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2854,30 +2801,30 @@
       </c>
       <c r="B5" s="14">
         <f ca="1">TODAY()</f>
-        <v>44686</v>
+        <v>44649</v>
       </c>
       <c r="C5" s="15">
         <v>20</v>
       </c>
       <c r="D5" s="16">
         <f ca="1">TODAY()+C5</f>
-        <v>44706</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="81"/>
+      <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="81"/>
+      <c r="B10" s="80"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
+      <c r="B11" s="80"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
@@ -2906,7 +2853,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2956,10 +2903,10 @@
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="82"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="42" t="s">
@@ -3048,12 +2995,12 @@
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
       <c r="Q6" s="40"/>
       <c r="R6" s="43"/>
     </row>
@@ -3199,7 +3146,7 @@
         <v>8.99</v>
       </c>
       <c r="P10" s="56">
-        <f t="shared" ref="P10:P14" si="0">N10*O10</f>
+        <f t="shared" ref="P9:P15" si="0">N10*O10</f>
         <v>125.86</v>
       </c>
       <c r="Q10" s="40"/>
@@ -3349,12 +3296,12 @@
     <row r="16" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="40"/>
       <c r="H16" s="61" t="s">
         <v>69</v>
@@ -3444,8 +3391,8 @@
         <v>100</v>
       </c>
       <c r="N18" s="70">
-        <f>MAX(O8:O15)</f>
-        <v>11.7</v>
+        <f>MAX(P8:P15)</f>
+        <v>125.86</v>
       </c>
       <c r="O18" s="49" t="s">
         <v>73</v>
@@ -3485,8 +3432,8 @@
         <v>102</v>
       </c>
       <c r="N19" s="70">
-        <f>MIN(O8:P15)</f>
-        <v>1.7</v>
+        <f>MIN(P8:P15)</f>
+        <v>11.850000000000001</v>
       </c>
       <c r="O19" s="49" t="s">
         <v>79</v>
